--- a/server/tempStu.xlsx
+++ b/server/tempStu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F84ACC-8373-44A5-ACBB-4B407833AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E428DFC-5B08-44A4-B27C-4278E59E950E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -39,7 +39,61 @@
     <t>courses</t>
   </si>
   <si>
-    <t>CSE2201,CSE2202</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Aanya</t>
+  </si>
+  <si>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Ishita</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Sanya</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>sem</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>CS301</t>
+  </si>
+  <si>
+    <t>CS301, CS501</t>
+  </si>
+  <si>
+    <t>CS501</t>
+  </si>
+  <si>
+    <t>CS501,CS301</t>
+  </si>
+  <si>
+    <t>dept</t>
   </si>
 </sst>
 </file>
@@ -357,15 +411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,15 +430,204 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>395820614</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2027</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>841720359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>2027</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>294781360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2027</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>703951284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2027</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>130984627</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2027</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>916205438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2027</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>582014736</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2027</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
